--- a/advanced-mongodb/documents-pédagogiques/Grille Evaluation - M2 DEV - Optimisations NoSQL.xlsx
+++ b/advanced-mongodb/documents-pédagogiques/Grille Evaluation - M2 DEV - Optimisations NoSQL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Thierry QUATRE" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Apprenant 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/advanced-mongodb/documents-pédagogiques/Grille Evaluation - M2 DEV - Optimisations NoSQL.xlsx
+++ b/advanced-mongodb/documents-pédagogiques/Grille Evaluation - M2 DEV - Optimisations NoSQL.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n.comet/wk/private/lectures/advanced-mongodb/documents-pédagogiques/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFB84DF-F212-B741-9B0B-E64230BC1164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Apprenant 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Apprenant 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -41,9 +63,6 @@
     <t>Année scolaire</t>
   </si>
   <si>
-    <t>2023-2024</t>
-  </si>
-  <si>
     <t>EVALUATEUR(S)</t>
   </si>
   <si>
@@ -124,65 +143,71 @@
   </si>
   <si>
     <t>COMMENTAIRE</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -192,7 +217,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -232,27 +257,17 @@
     </fill>
   </fills>
   <borders count="66">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF0070C0"/>
       </left>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
       <right/>
       <top style="medium">
         <color rgb="FF0070C0"/>
@@ -260,176 +275,42 @@
       <bottom style="medium">
         <color rgb="FF0070C0"/>
       </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color rgb="FF0070C0"/>
       </top>
-    </border>
-    <border>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF0070C0"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -438,15 +319,233 @@
       <right style="medium">
         <color rgb="FF0070C0"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
       <top style="medium">
         <color rgb="FF0070C0"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF0070C0"/>
       </left>
       <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -457,6 +556,7 @@
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -469,6 +569,7 @@
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -479,6 +580,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -489,85 +591,102 @@
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF0070C0"/>
       </left>
       <right/>
+      <top/>
       <bottom/>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="dotted">
-        <color rgb="FF529FD7"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF529FD7"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF529FD7"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF529FD7"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF529FD7"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF529FD7"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF529FD7"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF0070C0"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF529FD7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF529FD7"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF529FD7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF529FD7"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF529FD7"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF529FD7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF529FD7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF0070C0"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF0070C0"/>
       </top>
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF0070C0"/>
       </top>
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF0070C0"/>
       </right>
@@ -577,6 +696,7 @@
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -585,6 +705,9 @@
       <right style="dotted">
         <color rgb="FF529FD7"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -599,27 +722,34 @@
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF0070C0"/>
       </left>
+      <right/>
       <top style="dotted">
         <color rgb="FF529FD7"/>
       </top>
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="dotted">
         <color rgb="FF529FD7"/>
       </top>
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF0070C0"/>
       </right>
@@ -629,8 +759,10 @@
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="dotted">
         <color rgb="FF529FD7"/>
       </right>
@@ -640,6 +772,7 @@
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -654,14 +787,18 @@
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="dotted">
         <color rgb="FF529FD7"/>
       </right>
       <top style="dotted">
         <color rgb="FF529FD7"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -676,6 +813,7 @@
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -690,8 +828,10 @@
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="dotted">
         <color rgb="FF529FD7"/>
       </right>
@@ -701,6 +841,7 @@
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -709,9 +850,11 @@
       <right style="medium">
         <color rgb="FF0070C0"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -726,6 +869,7 @@
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -740,11 +884,16 @@
       <bottom style="dotted">
         <color rgb="FF529FD7"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="dotted">
         <color rgb="FF529FD7"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -753,9 +902,11 @@
       <right style="dotted">
         <color rgb="FF0070C0"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF0070C0"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -764,17 +915,22 @@
       <right style="dotted">
         <color rgb="FF0070C0"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF0070C0"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="dotted">
         <color rgb="FF529FD7"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF0070C0"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -789,297 +945,383 @@
       <bottom style="medium">
         <color rgb="FF0070C0"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="85">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="29" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="35" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="39" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="43" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="44" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="44" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="45" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="46" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="46" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="48" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="49" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="50" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="51" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="52" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="52" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="53" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="53" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="42" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="54" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="55" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="56" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="57" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="58" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="59" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="60" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="61" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="62" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="63" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="64" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="65" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <font>
-        <color rgb="FFFF9999"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF9999"/>
           <bgColor rgb="FFFF9999"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF66"/>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFF66"/>
+          <bgColor rgb="FFCCFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00CC66"/>
+          <bgColor rgb="FF00CC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDD6EE"/>
+          <bgColor rgb="FFBDD6EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9CC2E5"/>
+          <bgColor rgb="FF9CC2E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00CC66"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00CC66"/>
+          <bgColor rgb="FF00CC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF66"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFF66"/>
+          <bgColor rgb="FFCCFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF66"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF66"/>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1091,134 +1333,33 @@
           <bgColor rgb="FFFFCC99"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFF66"/>
+        <color rgb="FFFF9999"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF66"/>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCFF66"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFF66"/>
-          <bgColor rgb="FFCCFF66"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00CC66"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00CC66"/>
-          <bgColor rgb="FF00CC66"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9CC2E5"/>
-          <bgColor rgb="FF9CC2E5"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBDD6EE"/>
-          <bgColor rgb="FFBDD6EE"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00CC66"/>
-          <bgColor rgb="FF00CC66"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFF66"/>
-          <bgColor rgb="FFCCFF66"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF66"/>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC99"/>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF9999"/>
           <bgColor rgb="FFFF9999"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1408,491 +1549,513 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:P994"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.0"/>
-    <col customWidth="1" min="2" max="2" width="20.13"/>
-    <col customWidth="1" min="3" max="11" width="10.0"/>
-    <col customWidth="1" min="12" max="13" width="6.13"/>
-    <col customWidth="1" min="14" max="26" width="10.0"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="11" width="10" customWidth="1"/>
+    <col min="12" max="13" width="6.1640625" customWidth="1"/>
+    <col min="14" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="18.0" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:16" ht="14.25" customHeight="1"/>
+    <row r="2" spans="2:16" ht="18" customHeight="1">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="M2" s="64"/>
     </row>
-    <row r="3" ht="41.25" customHeight="1">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:16" ht="41.25" customHeight="1">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11" t="str">
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67" t="str">
         <f>IF(COUNTIF(L12:L22,"&gt;0")=ROWS(L12:L22),IF(COUNTIF(M12:M22,"&gt;=0")+COUNTIF(M12:M22,"=0")&gt;=1,MROUND(SUM(M12:M22)/(SUM(L12:L22)*K11)*20,0.5),"-"),"-")</f>
         <v>-</v>
       </c>
-      <c r="M3" s="12"/>
+      <c r="M3" s="40"/>
     </row>
-    <row r="4" ht="18.0" customHeight="1">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="2:16" ht="18" customHeight="1">
+      <c r="B4" s="31"/>
+      <c r="C4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="43"/>
     </row>
-    <row r="5" ht="18.0" customHeight="1">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="2:16" ht="18" customHeight="1">
+      <c r="B5" s="31"/>
+      <c r="C5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="43"/>
     </row>
-    <row r="6" ht="18.0" customHeight="1">
-      <c r="B6" s="13"/>
-      <c r="C6" s="21" t="s">
+    <row r="6" spans="2:16" ht="18" customHeight="1">
+      <c r="B6" s="31"/>
+      <c r="C6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="2:16" ht="18" customHeight="1">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="34"/>
     </row>
-    <row r="7" ht="18.0" customHeight="1">
-      <c r="B7" s="22"/>
-      <c r="C7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+    <row r="8" spans="2:16" ht="14.25" customHeight="1"/>
+    <row r="9" spans="2:16" ht="18" customHeight="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="24"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="18.0" customHeight="1">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="32" t="s">
+    <row r="10" spans="2:16" ht="38.25" customHeight="1">
+      <c r="B10" s="36"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
     </row>
-    <row r="10" ht="38.25" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="38" t="s">
+    <row r="11" spans="2:16" ht="18" customHeight="1">
+      <c r="B11" s="37"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="12">
+        <v>4</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+    </row>
+    <row r="12" spans="2:16" ht="27.75" customHeight="1">
+      <c r="B12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="C12" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14">
+        <v>3</v>
+      </c>
+      <c r="M12" s="15" t="str">
+        <f t="shared" ref="M12:M22" si="0">IF(G12="x","0",(IF(H12="x",$H$11*$L12,(IF(I12="x",$I$11*$L12,(IF(J12="x",$J$11*$L12,(IF(K12="x",$K$11*$L12,"-")))))))))</f>
+        <v>-</v>
+      </c>
+      <c r="P12" s="16"/>
     </row>
-    <row r="11" ht="18.0" customHeight="1">
-      <c r="B11" s="39"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="J11" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="K11" s="45">
-        <v>4.0</v>
-      </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+    <row r="13" spans="2:16" ht="24.75" customHeight="1">
+      <c r="B13" s="31"/>
+      <c r="C13" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
-    <row r="12" ht="27.75" customHeight="1">
-      <c r="B12" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="52">
-        <v>3.0</v>
-      </c>
-      <c r="M12" s="53" t="str">
-        <f t="shared" ref="M12:M22" si="1">IF(G12="x","0",(IF(H12="x",$H$11*$L12,(IF(I12="x",$I$11*$L12,(IF(J12="x",$J$11*$L12,(IF(K12="x",$K$11*$L12,"-")))))))))</f>
+    <row r="14" spans="2:16" ht="36.75" customHeight="1">
+      <c r="B14" s="31"/>
+      <c r="C14" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="P12" s="54"/>
     </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="B13" s="13"/>
-      <c r="C13" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60">
-        <v>2.0</v>
-      </c>
-      <c r="M13" s="61" t="str">
-        <f t="shared" si="1"/>
+    <row r="15" spans="2:16" ht="32.25" customHeight="1">
+      <c r="B15" s="32"/>
+      <c r="C15" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="14" ht="36.75" customHeight="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="60">
-        <v>2.0</v>
-      </c>
-      <c r="M14" s="61" t="str">
-        <f t="shared" si="1"/>
+    <row r="16" spans="2:16" ht="23.25" customHeight="1">
+      <c r="B16" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="14">
+        <v>2</v>
+      </c>
+      <c r="M16" s="23" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="15" ht="32.25" customHeight="1">
-      <c r="B15" s="22"/>
-      <c r="C15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="M15" s="61" t="str">
-        <f t="shared" si="1"/>
+    <row r="17" spans="2:13" ht="24" customHeight="1">
+      <c r="B17" s="31"/>
+      <c r="C17" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="16" ht="23.25" customHeight="1">
-      <c r="B16" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="M16" s="68" t="str">
-        <f t="shared" si="1"/>
+    <row r="18" spans="2:13" ht="24" customHeight="1">
+      <c r="B18" s="31"/>
+      <c r="C18" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="17" ht="24.0" customHeight="1">
-      <c r="B17" s="13"/>
-      <c r="C17" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60">
-        <v>2.0</v>
-      </c>
-      <c r="M17" s="61" t="str">
-        <f t="shared" si="1"/>
+    <row r="19" spans="2:13" ht="24.75" customHeight="1">
+      <c r="B19" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="18" ht="24.0" customHeight="1">
-      <c r="B18" s="13"/>
-      <c r="C18" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="M18" s="61" t="str">
-        <f t="shared" si="1"/>
+    <row r="20" spans="2:13" ht="25.5" customHeight="1">
+      <c r="B20" s="31"/>
+      <c r="C20" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="19" ht="24.75" customHeight="1">
-      <c r="B19" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="75">
-        <v>1.0</v>
-      </c>
-      <c r="M19" s="53" t="str">
-        <f t="shared" si="1"/>
+    <row r="21" spans="2:13" ht="27.75" customHeight="1">
+      <c r="B21" s="31"/>
+      <c r="C21" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="20" ht="25.5" customHeight="1">
-      <c r="B20" s="13"/>
-      <c r="C20" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="M20" s="61" t="str">
-        <f t="shared" si="1"/>
+    <row r="22" spans="2:13" ht="28.5" customHeight="1">
+      <c r="B22" s="32"/>
+      <c r="C22" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="29" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="21" ht="27.75" customHeight="1">
-      <c r="B21" s="13"/>
-      <c r="C21" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="M21" s="61" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
+    <row r="23" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="24" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B24" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
     </row>
-    <row r="22" ht="28.5" customHeight="1">
-      <c r="B22" s="22"/>
-      <c r="C22" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="M22" s="83" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
+    <row r="25" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B25" s="41"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="79"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="87"/>
+    <row r="26" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B26" s="41"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="79"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="18"/>
-      <c r="C25" s="88"/>
-      <c r="M25" s="89"/>
+    <row r="27" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B27" s="44"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="82"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="18"/>
-      <c r="C26" s="88"/>
-      <c r="M26" s="89"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="27"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="28" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="29" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="30" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="31" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="32" spans="2:13" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2857,6 +3020,26 @@
     <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C24:M27"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:M7"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="E6:K6"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B9:B11"/>
@@ -2871,108 +3054,74 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:M7"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:M27"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
     <mergeCell ref="C14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:G22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H22">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I22">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J22">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:K22">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L22">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L22">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L22">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:M7">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="between">
       <formula>15.5</formula>
       <formula>20</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:M7">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="between">
       <formula>10.5</formula>
       <formula>15</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:M7">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="between">
       <formula>5.5</formula>
       <formula>10</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:M7">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="between">
       <formula>0.5</formula>
       <formula>5</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:M7">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Une seule cellule à remplir - Merci de ne remplir qu'un seul niveau de compétences pour une ligne ou d'indiquer &quot;Non évaluée&quot;." sqref="G12:K22">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Une seule cellule à remplir - Merci de ne remplir qu'un seul niveau de compétences pour une ligne ou d'indiquer &quot;Non évaluée&quot;." sqref="G12:K22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>COUNTA($G12:$K12)&lt;2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L12:L22">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L12:L22" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>